--- a/target/test-classes/P21Jan2024/e2e/Dev1/devw.xlsx
+++ b/target/test-classes/P21Jan2024/e2e/Dev1/devw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>firstdev</t>
   </si>
@@ -479,6 +479,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/test-classes/P21Jan2024/e2e/Dev1/devw.xlsx
+++ b/target/test-classes/P21Jan2024/e2e/Dev1/devw.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>firstdev</t>
   </si>
@@ -484,6 +484,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
